--- a/CityCouncilMeetingProject/MI Municipalities.xlsx
+++ b/CityCouncilMeetingProject/MI Municipalities.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TestCode\Document\scraper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TestCode\Scraper\Scraper\CityCouncilMeetingProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11737" uniqueCount="3648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11741" uniqueCount="3648">
   <si>
     <t>Order</t>
   </si>
@@ -10968,7 +10968,7 @@
     <t>http://spartatownship.org</t>
   </si>
   <si>
-    <t>esay</t>
+    <t>done</t>
   </si>
 </sst>
 </file>
@@ -11549,8 +11549,8 @@
   <dimension ref="A1:G2154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A253" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A268" sqref="A268:XFD268"/>
+      <pane ySplit="1" topLeftCell="A274" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E295" sqref="E295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="15" customHeight="1"/>
@@ -16294,6 +16294,9 @@
       <c r="E281" s="36" t="s">
         <v>1063</v>
       </c>
+      <c r="G281" s="37" t="s">
+        <v>3647</v>
+      </c>
     </row>
     <row r="282" spans="1:7" ht="15.75">
       <c r="A282" s="10" t="s">
@@ -16431,6 +16434,9 @@
       <c r="E289" s="28" t="s">
         <v>1084</v>
       </c>
+      <c r="G289" s="31" t="s">
+        <v>3647</v>
+      </c>
     </row>
     <row r="290" spans="1:7" ht="15.75">
       <c r="A290" s="4" t="s">
@@ -16493,6 +16499,9 @@
       <c r="E293" s="33" t="s">
         <v>3646</v>
       </c>
+      <c r="G293" s="31" t="s">
+        <v>3647</v>
+      </c>
     </row>
     <row r="294" spans="1:7" ht="15.75">
       <c r="A294" s="4" t="s">
@@ -16539,6 +16548,9 @@
       </c>
       <c r="E296" s="28" t="s">
         <v>1096</v>
+      </c>
+      <c r="G296" s="31" t="s">
+        <v>3647</v>
       </c>
     </row>
     <row r="297" spans="1:7" ht="15.75">

--- a/CityCouncilMeetingProject/MI Municipalities.xlsx
+++ b/CityCouncilMeetingProject/MI Municipalities.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11741" uniqueCount="3648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11746" uniqueCount="3650">
   <si>
     <t>Order</t>
   </si>
@@ -10969,6 +10969,12 @@
   </si>
   <si>
     <t>done</t>
+  </si>
+  <si>
+    <t>can't find agenda</t>
+  </si>
+  <si>
+    <t>too difficult to get the year</t>
   </si>
 </sst>
 </file>
@@ -11549,8 +11555,8 @@
   <dimension ref="A1:G2154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A274" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E295" sqref="E295"/>
+      <pane ySplit="1" topLeftCell="A280" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H290" sqref="H290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="15" customHeight="1"/>
@@ -16336,21 +16342,24 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="284" spans="1:7" ht="15.75">
-      <c r="A284" s="10" t="s">
+    <row r="284" spans="1:7" s="31" customFormat="1" ht="15.75">
+      <c r="A284" s="28" t="s">
         <v>1069</v>
       </c>
-      <c r="B284" s="6" t="s">
+      <c r="B284" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C284" s="4" t="s">
+      <c r="C284" s="30" t="s">
         <v>639</v>
       </c>
-      <c r="D284" s="6">
+      <c r="D284" s="29">
         <v>9489</v>
       </c>
-      <c r="E284" s="32" t="s">
+      <c r="E284" s="33" t="s">
         <v>1070</v>
+      </c>
+      <c r="G284" s="31" t="s">
+        <v>3647</v>
       </c>
     </row>
     <row r="285" spans="1:7" ht="15.75">
@@ -16386,6 +16395,9 @@
       <c r="E286" s="32" t="s">
         <v>1075</v>
       </c>
+      <c r="G286" t="s">
+        <v>3648</v>
+      </c>
     </row>
     <row r="287" spans="1:7" ht="15.75">
       <c r="A287" s="10" t="s">
@@ -16503,21 +16515,24 @@
         <v>3647</v>
       </c>
     </row>
-    <row r="294" spans="1:7" ht="15.75">
-      <c r="A294" s="4" t="s">
+    <row r="294" spans="1:7" s="31" customFormat="1" ht="15.75">
+      <c r="A294" s="30" t="s">
         <v>792</v>
       </c>
-      <c r="B294" s="4" t="s">
+      <c r="B294" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C294" s="4" t="s">
+      <c r="C294" s="30" t="s">
         <v>450</v>
       </c>
-      <c r="D294" s="6">
+      <c r="D294" s="29">
         <v>9074</v>
       </c>
-      <c r="E294" s="4" t="s">
+      <c r="E294" s="30" t="s">
         <v>9</v>
+      </c>
+      <c r="G294" s="30" t="s">
+        <v>3647</v>
       </c>
     </row>
     <row r="295" spans="1:7" ht="15.75">
@@ -16534,6 +16549,9 @@
       <c r="E295" s="32" t="s">
         <v>1095</v>
       </c>
+      <c r="G295" t="s">
+        <v>3649</v>
+      </c>
     </row>
     <row r="296" spans="1:7" s="31" customFormat="1" ht="15.75">
       <c r="A296" s="28" t="s">
@@ -16553,19 +16571,22 @@
         <v>3647</v>
       </c>
     </row>
-    <row r="297" spans="1:7" ht="15.75">
-      <c r="A297" s="10" t="s">
+    <row r="297" spans="1:7" s="31" customFormat="1" ht="15.75">
+      <c r="A297" s="28" t="s">
         <v>1097</v>
       </c>
-      <c r="B297" s="6"/>
-      <c r="C297" s="4" t="s">
+      <c r="B297" s="29"/>
+      <c r="C297" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D297" s="6">
+      <c r="D297" s="29">
         <v>9001</v>
       </c>
-      <c r="E297" s="10" t="s">
+      <c r="E297" s="33" t="s">
         <v>1099</v>
+      </c>
+      <c r="G297" s="31" t="s">
+        <v>3647</v>
       </c>
     </row>
     <row r="298" spans="1:7" ht="15.75">
@@ -16581,7 +16602,7 @@
       <c r="D298" s="6">
         <v>8841</v>
       </c>
-      <c r="E298" s="10" t="s">
+      <c r="E298" s="32" t="s">
         <v>1102</v>
       </c>
       <c r="G298" s="14">

--- a/CityCouncilMeetingProject/MI Municipalities.xlsx
+++ b/CityCouncilMeetingProject/MI Municipalities.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11746" uniqueCount="3650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11747" uniqueCount="3651">
   <si>
     <t>Order</t>
   </si>
@@ -10975,6 +10975,9 @@
   </si>
   <si>
     <t>too difficult to get the year</t>
+  </si>
+  <si>
+    <t>there is pager</t>
   </si>
 </sst>
 </file>
@@ -11555,8 +11558,8 @@
   <dimension ref="A1:G2154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A280" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H290" sqref="H290"/>
+      <pane ySplit="1" topLeftCell="A258" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I288" sqref="I288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="15" customHeight="1"/>
@@ -16378,6 +16381,9 @@
       <c r="E285" s="32" t="s">
         <v>1072</v>
       </c>
+      <c r="G285" t="s">
+        <v>3650</v>
+      </c>
     </row>
     <row r="286" spans="1:7" ht="15.75">
       <c r="A286" s="10" t="s">
@@ -16493,7 +16499,7 @@
       <c r="D292" s="6">
         <v>9132</v>
       </c>
-      <c r="E292" s="10" t="s">
+      <c r="E292" s="32" t="s">
         <v>1090</v>
       </c>
     </row>
